--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3877,28 +3877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>452.6508789144806</v>
+        <v>504.5526182282414</v>
       </c>
       <c r="AB2" t="n">
-        <v>619.3369020781911</v>
+        <v>690.3511515504152</v>
       </c>
       <c r="AC2" t="n">
-        <v>560.2282573886491</v>
+        <v>624.4650065603694</v>
       </c>
       <c r="AD2" t="n">
-        <v>452650.8789144806</v>
+        <v>504552.6182282415</v>
       </c>
       <c r="AE2" t="n">
-        <v>619336.9020781911</v>
+        <v>690351.1515504152</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.553415134626906e-06</v>
+        <v>4.316674975845553e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.934722222222224</v>
       </c>
       <c r="AH2" t="n">
-        <v>560228.2573886492</v>
+        <v>624465.0065603694</v>
       </c>
     </row>
     <row r="3">
@@ -3983,28 +3983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>177.2099451404598</v>
+        <v>197.9536622036005</v>
       </c>
       <c r="AB3" t="n">
-        <v>242.4664648920829</v>
+        <v>270.8489337260668</v>
       </c>
       <c r="AC3" t="n">
-        <v>219.3258057866736</v>
+        <v>244.9994916301963</v>
       </c>
       <c r="AD3" t="n">
-        <v>177209.9451404597</v>
+        <v>197953.6622036005</v>
       </c>
       <c r="AE3" t="n">
-        <v>242466.4648920829</v>
+        <v>270848.9337260668</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.652254393147006e-06</v>
+        <v>7.864866878804474e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.355555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>219325.8057866736</v>
+        <v>244999.4916301963</v>
       </c>
     </row>
     <row r="4">
@@ -4089,28 +4089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>138.2093319626705</v>
+        <v>159.0383003718319</v>
       </c>
       <c r="AB4" t="n">
-        <v>189.1041053566378</v>
+        <v>217.603218843271</v>
       </c>
       <c r="AC4" t="n">
-        <v>171.0562749507324</v>
+        <v>196.8354730449674</v>
       </c>
       <c r="AD4" t="n">
-        <v>138209.3319626705</v>
+        <v>159038.3003718319</v>
       </c>
       <c r="AE4" t="n">
-        <v>189104.1053566378</v>
+        <v>217603.218843271</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.386490716781653e-06</v>
+        <v>9.106129813925919e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.761111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>171056.2749507324</v>
+        <v>196835.4730449674</v>
       </c>
     </row>
     <row r="5">
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>126.604725687839</v>
+        <v>147.4336940970003</v>
       </c>
       <c r="AB5" t="n">
-        <v>173.2261710923248</v>
+        <v>201.7252845789579</v>
       </c>
       <c r="AC5" t="n">
-        <v>156.6937084477796</v>
+        <v>182.4729065420146</v>
       </c>
       <c r="AD5" t="n">
-        <v>126604.725687839</v>
+        <v>147433.6940970003</v>
       </c>
       <c r="AE5" t="n">
-        <v>173226.1710923248</v>
+        <v>201725.2845789579</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.769729107838323e-06</v>
+        <v>9.754013328840292e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.511111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>156693.7084477796</v>
+        <v>182472.9065420146</v>
       </c>
     </row>
     <row r="6">
@@ -4301,28 +4301,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>119.8961527051125</v>
+        <v>140.5545289136817</v>
       </c>
       <c r="AB6" t="n">
-        <v>164.0472055760109</v>
+        <v>192.3129072877972</v>
       </c>
       <c r="AC6" t="n">
-        <v>148.3907705175808</v>
+        <v>173.9588333291647</v>
       </c>
       <c r="AD6" t="n">
-        <v>119896.1527051125</v>
+        <v>140554.5289136817</v>
       </c>
       <c r="AE6" t="n">
-        <v>164047.2055760109</v>
+        <v>192312.9072877972</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.019920901010073e-06</v>
+        <v>1.017697496876346e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.365277777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>148390.7705175809</v>
+        <v>173958.8333291647</v>
       </c>
     </row>
     <row r="7">
@@ -4407,28 +4407,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>115.2336698583796</v>
+        <v>125.6482435715113</v>
       </c>
       <c r="AB7" t="n">
-        <v>157.6677908508881</v>
+        <v>171.9174700637531</v>
       </c>
       <c r="AC7" t="n">
-        <v>142.6201981802569</v>
+        <v>155.509908008601</v>
       </c>
       <c r="AD7" t="n">
-        <v>115233.6698583796</v>
+        <v>125648.2435715113</v>
       </c>
       <c r="AE7" t="n">
-        <v>157667.7908508881</v>
+        <v>171917.4700637531</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.189438605771341e-06</v>
+        <v>1.046355305948691e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.273611111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>142620.1981802569</v>
+        <v>155509.908008601</v>
       </c>
     </row>
     <row r="8">
@@ -4513,28 +4513,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>111.8395437107128</v>
+        <v>122.2541174238445</v>
       </c>
       <c r="AB8" t="n">
-        <v>153.0237977173751</v>
+        <v>167.2734769302401</v>
       </c>
       <c r="AC8" t="n">
-        <v>138.4194212335196</v>
+        <v>151.3091310618636</v>
       </c>
       <c r="AD8" t="n">
-        <v>111839.5437107128</v>
+        <v>122254.1174238445</v>
       </c>
       <c r="AE8" t="n">
-        <v>153023.7977173751</v>
+        <v>167273.4769302401</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.304979072355612e-06</v>
+        <v>1.065887995092664e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.213888888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>138419.4212335196</v>
+        <v>151309.1310618636</v>
       </c>
     </row>
     <row r="9">
@@ -4619,28 +4619,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>109.043690982397</v>
+        <v>119.4582646955287</v>
       </c>
       <c r="AB9" t="n">
-        <v>149.1983886701781</v>
+        <v>163.4480678830431</v>
       </c>
       <c r="AC9" t="n">
-        <v>134.9591038567906</v>
+        <v>147.8488136851346</v>
       </c>
       <c r="AD9" t="n">
-        <v>109043.690982397</v>
+        <v>119458.2646955287</v>
       </c>
       <c r="AE9" t="n">
-        <v>149198.3886701781</v>
+        <v>163448.0678830431</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.400825141226656e-06</v>
+        <v>1.082091248587097e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.165277777777777</v>
       </c>
       <c r="AH9" t="n">
-        <v>134959.1038567906</v>
+        <v>147848.8136851346</v>
       </c>
     </row>
     <row r="10">
@@ -4725,28 +4725,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>106.3705619543513</v>
+        <v>116.785135667483</v>
       </c>
       <c r="AB10" t="n">
-        <v>145.5408956038782</v>
+        <v>159.7905748167431</v>
       </c>
       <c r="AC10" t="n">
-        <v>131.6506767954134</v>
+        <v>144.5403866237575</v>
       </c>
       <c r="AD10" t="n">
-        <v>106370.5619543513</v>
+        <v>116785.135667483</v>
       </c>
       <c r="AE10" t="n">
-        <v>145540.8956038782</v>
+        <v>159790.5748167431</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.475955621391933e-06</v>
+        <v>1.094792429027938e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.129166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>131650.6767954134</v>
+        <v>144540.3866237575</v>
       </c>
     </row>
     <row r="11">
@@ -4831,28 +4831,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>104.2710701418001</v>
+        <v>114.6856438549318</v>
       </c>
       <c r="AB11" t="n">
-        <v>142.6682782829054</v>
+        <v>156.9179574957704</v>
       </c>
       <c r="AC11" t="n">
-        <v>129.0522180398096</v>
+        <v>141.9419278681537</v>
       </c>
       <c r="AD11" t="n">
-        <v>104271.0701418001</v>
+        <v>114685.6438549318</v>
       </c>
       <c r="AE11" t="n">
-        <v>142668.2782829054</v>
+        <v>156917.9574957704</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.528474015293876e-06</v>
+        <v>1.10367092409338e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.104166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>129052.2180398096</v>
+        <v>141941.9278681537</v>
       </c>
     </row>
     <row r="12">
@@ -4937,28 +4937,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>102.4907184384606</v>
+        <v>112.9052921515923</v>
       </c>
       <c r="AB12" t="n">
-        <v>140.2323225388237</v>
+        <v>154.4820017516886</v>
       </c>
       <c r="AC12" t="n">
-        <v>126.8487464930569</v>
+        <v>139.7384563214009</v>
       </c>
       <c r="AD12" t="n">
-        <v>102490.7184384606</v>
+        <v>112905.2921515923</v>
       </c>
       <c r="AE12" t="n">
-        <v>140232.3225388237</v>
+        <v>154482.0017516886</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.572385227972999e-06</v>
+        <v>1.111094332467542e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>126848.7464930569</v>
+        <v>139738.4563214009</v>
       </c>
     </row>
     <row r="13">
@@ -5043,28 +5043,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>102.2471524483522</v>
+        <v>112.6617261614839</v>
       </c>
       <c r="AB13" t="n">
-        <v>139.8990648057844</v>
+        <v>154.1487440186494</v>
       </c>
       <c r="AC13" t="n">
-        <v>126.5472944103286</v>
+        <v>139.4370042386727</v>
       </c>
       <c r="AD13" t="n">
-        <v>102247.1524483522</v>
+        <v>112661.7261614839</v>
       </c>
       <c r="AE13" t="n">
-        <v>139899.0648057844</v>
+        <v>154148.7440186494</v>
       </c>
       <c r="AF13" t="n">
-        <v>6.5669875041553e-06</v>
+        <v>1.110181820474705e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.086111111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>126547.2944103286</v>
+        <v>139437.0042386727</v>
       </c>
     </row>
     <row r="14">
@@ -5149,28 +5149,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>102.4090565536463</v>
+        <v>112.823630266778</v>
       </c>
       <c r="AB14" t="n">
-        <v>140.1205891453527</v>
+        <v>154.3702683582176</v>
       </c>
       <c r="AC14" t="n">
-        <v>126.74767677784</v>
+        <v>139.637386606184</v>
       </c>
       <c r="AD14" t="n">
-        <v>102409.0565536463</v>
+        <v>112823.630266778</v>
       </c>
       <c r="AE14" t="n">
-        <v>140120.5891453527</v>
+        <v>154370.2683582176</v>
       </c>
       <c r="AF14" t="n">
-        <v>6.566403966445278e-06</v>
+        <v>1.110083170529533e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3.086111111111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>126747.67677784</v>
+        <v>139637.386606184</v>
       </c>
     </row>
   </sheetData>
@@ -5446,28 +5446,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>292.8043687099475</v>
+        <v>322.9908208955075</v>
       </c>
       <c r="AB2" t="n">
-        <v>400.6278548860191</v>
+        <v>441.9302904985836</v>
       </c>
       <c r="AC2" t="n">
-        <v>362.3924947004226</v>
+        <v>399.7530838264562</v>
       </c>
       <c r="AD2" t="n">
-        <v>292804.3687099476</v>
+        <v>322990.8208955075</v>
       </c>
       <c r="AE2" t="n">
-        <v>400627.8548860191</v>
+        <v>441930.2904985836</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.333419337767864e-06</v>
+        <v>5.772785633316639e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.287500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>362392.4947004226</v>
+        <v>399753.0838264562</v>
       </c>
     </row>
     <row r="3">
@@ -5552,28 +5552,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.518971336759</v>
+        <v>167.6199931591958</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.159523491705</v>
+        <v>229.3450695125021</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.2018426532595</v>
+        <v>207.4566979661217</v>
       </c>
       <c r="AD3" t="n">
-        <v>137518.971336759</v>
+        <v>167619.9931591958</v>
       </c>
       <c r="AE3" t="n">
-        <v>188159.523491705</v>
+        <v>229345.0695125021</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.251554061736967e-06</v>
+        <v>9.094594099427398e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.991666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>170201.8426532595</v>
+        <v>207456.6979661217</v>
       </c>
     </row>
     <row r="4">
@@ -5658,28 +5658,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>117.9389904790406</v>
+        <v>138.1201261667606</v>
       </c>
       <c r="AB4" t="n">
-        <v>161.3693298743972</v>
+        <v>188.9820500511921</v>
       </c>
       <c r="AC4" t="n">
-        <v>145.9684675145061</v>
+        <v>170.9458684323326</v>
       </c>
       <c r="AD4" t="n">
-        <v>117938.9904790406</v>
+        <v>138120.1261667606</v>
       </c>
       <c r="AE4" t="n">
-        <v>161369.3298743971</v>
+        <v>188982.0500511921</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.929164204193401e-06</v>
+        <v>1.026807325071279e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.534722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>145968.4675145061</v>
+        <v>170945.8684323326</v>
       </c>
     </row>
     <row r="5">
@@ -5764,28 +5764,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>109.4061677666051</v>
+        <v>129.4167112537329</v>
       </c>
       <c r="AB5" t="n">
-        <v>149.6943453976785</v>
+        <v>177.0736537996267</v>
       </c>
       <c r="AC5" t="n">
-        <v>135.4077271702982</v>
+        <v>160.1739928054737</v>
       </c>
       <c r="AD5" t="n">
-        <v>109406.1677666051</v>
+        <v>129416.7112537329</v>
       </c>
       <c r="AE5" t="n">
-        <v>149694.3453976786</v>
+        <v>177073.6537996267</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.276873283975055e-06</v>
+        <v>1.087023270829888e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.338888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>135407.7271702982</v>
+        <v>160173.9928054737</v>
       </c>
     </row>
     <row r="6">
@@ -5870,28 +5870,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>104.0600856232638</v>
+        <v>114.1507429756749</v>
       </c>
       <c r="AB6" t="n">
-        <v>142.3795999566642</v>
+        <v>156.18608251461</v>
       </c>
       <c r="AC6" t="n">
-        <v>128.7910907678622</v>
+        <v>141.279902008002</v>
       </c>
       <c r="AD6" t="n">
-        <v>104060.0856232638</v>
+        <v>114150.7429756749</v>
       </c>
       <c r="AE6" t="n">
-        <v>142379.5999566642</v>
+        <v>156186.08251461</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.495549697431485e-06</v>
+        <v>1.124893455467138e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.226388888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>128791.0907678622</v>
+        <v>141279.902008002</v>
       </c>
     </row>
     <row r="7">
@@ -5976,28 +5976,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>100.3877111000904</v>
+        <v>110.4783684525014</v>
       </c>
       <c r="AB7" t="n">
-        <v>137.3548951203312</v>
+        <v>151.161377678277</v>
       </c>
       <c r="AC7" t="n">
-        <v>124.2459367088897</v>
+        <v>136.7347479490296</v>
       </c>
       <c r="AD7" t="n">
-        <v>100387.7111000904</v>
+        <v>110478.3684525014</v>
       </c>
       <c r="AE7" t="n">
-        <v>137354.8951203312</v>
+        <v>151161.377678277</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.626242433148026e-06</v>
+        <v>1.147526705912865e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.163888888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>124245.9367088897</v>
+        <v>136734.7479490296</v>
       </c>
     </row>
     <row r="8">
@@ -6082,28 +6082,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>97.02049261084564</v>
+        <v>107.1111499632567</v>
       </c>
       <c r="AB8" t="n">
-        <v>132.7477182321533</v>
+        <v>146.5542007900991</v>
       </c>
       <c r="AC8" t="n">
-        <v>120.0784623167046</v>
+        <v>132.5672735568445</v>
       </c>
       <c r="AD8" t="n">
-        <v>97020.49261084564</v>
+        <v>107111.1499632567</v>
       </c>
       <c r="AE8" t="n">
-        <v>132747.7182321533</v>
+        <v>146554.2007900991</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.740636305749803e-06</v>
+        <v>1.167337333901157e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.109722222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>120078.4623167046</v>
+        <v>132567.2735568445</v>
       </c>
     </row>
     <row r="9">
@@ -6188,28 +6188,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>94.67335579904469</v>
+        <v>104.7640131514557</v>
       </c>
       <c r="AB9" t="n">
-        <v>129.5362620978808</v>
+        <v>143.3427446558267</v>
       </c>
       <c r="AC9" t="n">
-        <v>117.1735030485791</v>
+        <v>129.662314288719</v>
       </c>
       <c r="AD9" t="n">
-        <v>94673.35579904469</v>
+        <v>104764.0131514557</v>
       </c>
       <c r="AE9" t="n">
-        <v>129536.2620978808</v>
+        <v>143342.7446558267</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.820319636533099e-06</v>
+        <v>1.181136821470839e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.073611111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>117173.5030485791</v>
+        <v>129662.3142887189</v>
       </c>
     </row>
     <row r="10">
@@ -6294,28 +6294,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>94.78541625767784</v>
+        <v>104.8760736100889</v>
       </c>
       <c r="AB10" t="n">
-        <v>129.6895881611411</v>
+        <v>143.496070719087</v>
       </c>
       <c r="AC10" t="n">
-        <v>117.3121958875564</v>
+        <v>129.8010071276962</v>
       </c>
       <c r="AD10" t="n">
-        <v>94785.41625767783</v>
+        <v>104876.0736100889</v>
       </c>
       <c r="AE10" t="n">
-        <v>129689.5881611411</v>
+        <v>143496.070719087</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.810962881782029e-06</v>
+        <v>1.179516427097126e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.077777777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>117312.1958875564</v>
+        <v>129801.0071276962</v>
       </c>
     </row>
     <row r="11">
@@ -6400,28 +6400,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>95.07404576500106</v>
+        <v>105.1647031174121</v>
       </c>
       <c r="AB11" t="n">
-        <v>130.0845037864957</v>
+        <v>143.8909863444416</v>
       </c>
       <c r="AC11" t="n">
-        <v>117.6694213198948</v>
+        <v>130.1582325600347</v>
       </c>
       <c r="AD11" t="n">
-        <v>95074.04576500106</v>
+        <v>105164.7031174121</v>
       </c>
       <c r="AE11" t="n">
-        <v>130084.5037864957</v>
+        <v>143890.9863444416</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.810208304785976e-06</v>
+        <v>1.179385750131504e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.077777777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>117669.4213198948</v>
+        <v>130158.2325600347</v>
       </c>
     </row>
   </sheetData>
@@ -6697,28 +6697,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.6069631441504</v>
+        <v>132.7524430235603</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.8103030761312</v>
+        <v>181.6377491692017</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.8445478352309</v>
+        <v>164.3024973187261</v>
       </c>
       <c r="AD2" t="n">
-        <v>114606.9631441504</v>
+        <v>132752.4430235603</v>
       </c>
       <c r="AE2" t="n">
-        <v>156810.3030761312</v>
+        <v>181637.7491692017</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.803050233847217e-06</v>
+        <v>1.098061979919127e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.030555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>141844.5478352309</v>
+        <v>164302.4973187261</v>
       </c>
     </row>
     <row r="3">
@@ -6803,28 +6803,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.60125715651445</v>
+        <v>89.71671227778073</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.2821959180035</v>
+        <v>122.7543637604117</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.75701792165158</v>
+        <v>111.0388595699818</v>
       </c>
       <c r="AD3" t="n">
-        <v>80601.25715651445</v>
+        <v>89716.71227778072</v>
       </c>
       <c r="AE3" t="n">
-        <v>110282.1959180035</v>
+        <v>122754.3637604117</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.153446630400346e-06</v>
+        <v>1.353586037289163e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.269444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>99757.01792165158</v>
+        <v>111038.8595699818</v>
       </c>
     </row>
     <row r="4">
@@ -6909,28 +6909,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>76.70754015736594</v>
+        <v>85.82299527863223</v>
       </c>
       <c r="AB4" t="n">
-        <v>104.9546405411008</v>
+        <v>117.426808383509</v>
       </c>
       <c r="AC4" t="n">
-        <v>94.9379169526478</v>
+        <v>106.2197586009781</v>
       </c>
       <c r="AD4" t="n">
-        <v>76707.54015736595</v>
+        <v>85822.99527863224</v>
       </c>
       <c r="AE4" t="n">
-        <v>104954.6405411008</v>
+        <v>117426.808383509</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.389542870326458e-06</v>
+        <v>1.398260526431549e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.165277777777777</v>
       </c>
       <c r="AH4" t="n">
-        <v>94937.91695264779</v>
+        <v>106219.7586009781</v>
       </c>
     </row>
   </sheetData>
@@ -7206,28 +7206,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.8379357291758</v>
+        <v>182.2424872115212</v>
       </c>
       <c r="AB2" t="n">
-        <v>210.4878505152965</v>
+        <v>249.3522109737925</v>
       </c>
       <c r="AC2" t="n">
-        <v>190.3991854837303</v>
+        <v>225.5543859265524</v>
       </c>
       <c r="AD2" t="n">
-        <v>153837.9357291758</v>
+        <v>182242.4872115212</v>
       </c>
       <c r="AE2" t="n">
-        <v>210487.8505152965</v>
+        <v>249352.2109737925</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.799245086500492e-06</v>
+        <v>8.743182272607717e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.6625</v>
       </c>
       <c r="AH2" t="n">
-        <v>190399.1854837303</v>
+        <v>225554.3859265523</v>
       </c>
     </row>
     <row r="3">
@@ -7312,28 +7312,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.56255374623075</v>
+        <v>118.5558153041754</v>
       </c>
       <c r="AB3" t="n">
-        <v>136.2258784254078</v>
+        <v>162.2132968125368</v>
       </c>
       <c r="AC3" t="n">
-        <v>123.2246717827445</v>
+        <v>146.7318874325851</v>
       </c>
       <c r="AD3" t="n">
-        <v>99562.55374623075</v>
+        <v>118555.8153041754</v>
       </c>
       <c r="AE3" t="n">
-        <v>136225.8784254077</v>
+        <v>162213.2968125368</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.373700347674353e-06</v>
+        <v>1.161149782649141e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.511111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>123224.6717827445</v>
+        <v>146731.8874325851</v>
       </c>
     </row>
     <row r="4">
@@ -7418,28 +7418,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>88.86470232751736</v>
+        <v>98.36142261504074</v>
       </c>
       <c r="AB4" t="n">
-        <v>121.5886061584358</v>
+        <v>134.5824378215488</v>
       </c>
       <c r="AC4" t="n">
-        <v>109.9843602373871</v>
+        <v>121.7380788435339</v>
       </c>
       <c r="AD4" t="n">
-        <v>88864.70232751737</v>
+        <v>98361.42261504073</v>
       </c>
       <c r="AE4" t="n">
-        <v>121588.6061584358</v>
+        <v>134582.4378215488</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.928698646532834e-06</v>
+        <v>1.262258419537807e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.229166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>109984.3602373871</v>
+        <v>121738.0788435339</v>
       </c>
     </row>
     <row r="5">
@@ -7524,28 +7524,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>83.66180781410928</v>
+        <v>93.15852810163265</v>
       </c>
       <c r="AB5" t="n">
-        <v>114.4697763496883</v>
+        <v>127.4636080128012</v>
       </c>
       <c r="AC5" t="n">
-        <v>103.5449415542438</v>
+        <v>115.2986601603906</v>
       </c>
       <c r="AD5" t="n">
-        <v>83661.80781410928</v>
+        <v>93158.52810163265</v>
       </c>
       <c r="AE5" t="n">
-        <v>114469.7763496883</v>
+        <v>127463.6080128012</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.178085400272437e-06</v>
+        <v>1.307691270017823e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.116666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>103544.9415542438</v>
+        <v>115298.6601603906</v>
       </c>
     </row>
     <row r="6">
@@ -7630,28 +7630,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>83.20806686237296</v>
+        <v>92.70478714989632</v>
       </c>
       <c r="AB6" t="n">
-        <v>113.848947961885</v>
+        <v>126.8427796249979</v>
       </c>
       <c r="AC6" t="n">
-        <v>102.983364156434</v>
+        <v>114.7370827625809</v>
       </c>
       <c r="AD6" t="n">
-        <v>83208.06686237296</v>
+        <v>92704.78714989632</v>
       </c>
       <c r="AE6" t="n">
-        <v>113848.947961885</v>
+        <v>126842.7796249979</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.201445270616264e-06</v>
+        <v>1.311946931076997e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.106944444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>102983.3641564341</v>
+        <v>114737.0827625809</v>
       </c>
     </row>
   </sheetData>
@@ -7927,28 +7927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.91577176650712</v>
+        <v>100.5210717006415</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.449016916572</v>
+        <v>137.5373649774596</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.6216019687789</v>
+        <v>124.4109918989519</v>
       </c>
       <c r="AD2" t="n">
-        <v>82915.77176650712</v>
+        <v>100521.0717006415</v>
       </c>
       <c r="AE2" t="n">
-        <v>113449.016916572</v>
+        <v>137537.3649774596</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.665155668357e-06</v>
+        <v>1.306155759370629e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.644444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>102621.6019687789</v>
+        <v>124410.9918989519</v>
       </c>
     </row>
     <row r="3">
@@ -8033,28 +8033,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.02756249994962</v>
+        <v>80.83030197556785</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.55128864418432</v>
+        <v>110.5955851441765</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.1456919736102</v>
+        <v>100.0404977199233</v>
       </c>
       <c r="AD3" t="n">
-        <v>72027.56249994962</v>
+        <v>80830.30197556785</v>
       </c>
       <c r="AE3" t="n">
-        <v>98551.28864418433</v>
+        <v>110595.5851441765</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.453067350268051e-06</v>
+        <v>1.460561062473955e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.259722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>89145.6919736102</v>
+        <v>100040.4977199233</v>
       </c>
     </row>
   </sheetData>
@@ -8330,28 +8330,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>321.4015741199904</v>
+        <v>362.019059225483</v>
       </c>
       <c r="AB2" t="n">
-        <v>439.7558129477017</v>
+        <v>495.3304479860124</v>
       </c>
       <c r="AC2" t="n">
-        <v>397.7861353611322</v>
+        <v>448.0568052308768</v>
       </c>
       <c r="AD2" t="n">
-        <v>321401.5741199903</v>
+        <v>362019.059225483</v>
       </c>
       <c r="AE2" t="n">
-        <v>439755.8129477017</v>
+        <v>495330.4479860124</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.133725169524287e-06</v>
+        <v>5.391515262976045e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.629166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>397786.1353611322</v>
+        <v>448056.8052308768</v>
       </c>
     </row>
     <row r="3">
@@ -8436,28 +8436,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.6994469898289</v>
+        <v>174.9656086238402</v>
       </c>
       <c r="AB3" t="n">
-        <v>211.6666082293158</v>
+        <v>239.3956646569065</v>
       </c>
       <c r="AC3" t="n">
-        <v>191.4654442159209</v>
+        <v>216.5480784160462</v>
       </c>
       <c r="AD3" t="n">
-        <v>154699.4469898289</v>
+        <v>174965.6086238402</v>
       </c>
       <c r="AE3" t="n">
-        <v>211666.6082293158</v>
+        <v>239395.6646569065</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.092808164589367e-06</v>
+        <v>8.762080739505573e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.079166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>191465.4442159208</v>
+        <v>216548.0784160462</v>
       </c>
     </row>
     <row r="4">
@@ -8542,28 +8542,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>122.8627620695878</v>
+        <v>143.2141750496197</v>
       </c>
       <c r="AB4" t="n">
-        <v>168.1062513860522</v>
+        <v>195.9519524662921</v>
       </c>
       <c r="AC4" t="n">
-        <v>152.0624266924196</v>
+        <v>177.2505731432573</v>
       </c>
       <c r="AD4" t="n">
-        <v>122862.7620695878</v>
+        <v>143214.1750496197</v>
       </c>
       <c r="AE4" t="n">
-        <v>168106.2513860522</v>
+        <v>195951.9524662921</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.786615784568519e-06</v>
+        <v>9.955763711153829e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.590277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>152062.4266924197</v>
+        <v>177250.5731432573</v>
       </c>
     </row>
     <row r="5">
@@ -8648,28 +8648,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>113.384365017949</v>
+        <v>133.5651857973887</v>
       </c>
       <c r="AB5" t="n">
-        <v>155.1374903826407</v>
+        <v>182.7497796880338</v>
       </c>
       <c r="AC5" t="n">
-        <v>140.3313860373992</v>
+        <v>165.3083972055858</v>
       </c>
       <c r="AD5" t="n">
-        <v>113384.365017949</v>
+        <v>133565.1857973887</v>
       </c>
       <c r="AE5" t="n">
-        <v>155137.4903826407</v>
+        <v>182749.7796880337</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.153485819448635e-06</v>
+        <v>1.058695671168264e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.375</v>
       </c>
       <c r="AH5" t="n">
-        <v>140331.3860373992</v>
+        <v>165308.3972055858</v>
       </c>
     </row>
     <row r="6">
@@ -8754,28 +8754,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>108.097251446573</v>
+        <v>118.27304744514</v>
       </c>
       <c r="AB6" t="n">
-        <v>147.9034283432989</v>
+        <v>161.8264013529673</v>
       </c>
       <c r="AC6" t="n">
-        <v>133.7877327260201</v>
+        <v>146.3819167326654</v>
       </c>
       <c r="AD6" t="n">
-        <v>108097.251446573</v>
+        <v>118273.04744514</v>
       </c>
       <c r="AE6" t="n">
-        <v>147903.4283432989</v>
+        <v>161826.4013529673</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.363766809681592e-06</v>
+        <v>1.094874120362863e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.263888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>133787.7327260201</v>
+        <v>146381.9167326654</v>
       </c>
     </row>
     <row r="7">
@@ -8860,28 +8860,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>103.9345004472863</v>
+        <v>114.1102964458533</v>
       </c>
       <c r="AB7" t="n">
-        <v>142.2077687784649</v>
+        <v>156.1307417881332</v>
       </c>
       <c r="AC7" t="n">
-        <v>128.6356589161436</v>
+        <v>141.229842922789</v>
       </c>
       <c r="AD7" t="n">
-        <v>103934.5004472863</v>
+        <v>114110.2964458533</v>
       </c>
       <c r="AE7" t="n">
-        <v>142207.7687784649</v>
+        <v>156130.7417881332</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.524992206175993e-06</v>
+        <v>1.122612646843502e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.183333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>128635.6589161436</v>
+        <v>141229.842922789</v>
       </c>
     </row>
     <row r="8">
@@ -8966,28 +8966,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>100.5119865741482</v>
+        <v>110.6877825727151</v>
       </c>
       <c r="AB8" t="n">
-        <v>137.5249343065839</v>
+        <v>151.4479073162522</v>
       </c>
       <c r="AC8" t="n">
-        <v>124.399747593858</v>
+        <v>136.9939316005034</v>
       </c>
       <c r="AD8" t="n">
-        <v>100511.9865741481</v>
+        <v>110687.7825727151</v>
       </c>
       <c r="AE8" t="n">
-        <v>137524.9343065839</v>
+        <v>151447.9073162522</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.641798360779079e-06</v>
+        <v>1.142708926232536e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.127777777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>124399.747593858</v>
+        <v>136993.9316005034</v>
       </c>
     </row>
     <row r="9">
@@ -9072,28 +9072,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>98.16803212794876</v>
+        <v>108.3438281265157</v>
       </c>
       <c r="AB9" t="n">
-        <v>134.3178324253235</v>
+        <v>148.2408054349918</v>
       </c>
       <c r="AC9" t="n">
-        <v>121.4987270149483</v>
+        <v>134.0929110215937</v>
       </c>
       <c r="AD9" t="n">
-        <v>98168.03212794877</v>
+        <v>108343.8281265157</v>
       </c>
       <c r="AE9" t="n">
-        <v>134317.8324253235</v>
+        <v>148240.8054349918</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.701622255582197e-06</v>
+        <v>1.153001514908097e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="AH9" t="n">
-        <v>121498.7270149483</v>
+        <v>134092.9110215937</v>
       </c>
     </row>
     <row r="10">
@@ -9178,28 +9178,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>96.4565742831406</v>
+        <v>106.6323702817076</v>
       </c>
       <c r="AB10" t="n">
-        <v>131.9761402978668</v>
+        <v>145.8991133075352</v>
       </c>
       <c r="AC10" t="n">
-        <v>119.3805226975498</v>
+        <v>131.9747067041952</v>
       </c>
       <c r="AD10" t="n">
-        <v>96456.5742831406</v>
+        <v>106632.3702817076</v>
       </c>
       <c r="AE10" t="n">
-        <v>131976.1402978668</v>
+        <v>145899.1133075352</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.755762880379018e-06</v>
+        <v>1.162316307659481e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.075</v>
       </c>
       <c r="AH10" t="n">
-        <v>119380.5226975498</v>
+        <v>131974.7067041952</v>
       </c>
     </row>
     <row r="11">
@@ -9284,28 +9284,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>96.52589692570419</v>
+        <v>106.7016929242712</v>
       </c>
       <c r="AB11" t="n">
-        <v>132.0709905957215</v>
+        <v>145.9939636053898</v>
       </c>
       <c r="AC11" t="n">
-        <v>119.4663206161004</v>
+        <v>132.0605046227458</v>
       </c>
       <c r="AD11" t="n">
-        <v>96525.89692570419</v>
+        <v>106701.6929242712</v>
       </c>
       <c r="AE11" t="n">
-        <v>132070.9905957215</v>
+        <v>145993.9636053898</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.754566402482956e-06</v>
+        <v>1.162110455885969e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.075</v>
       </c>
       <c r="AH11" t="n">
-        <v>119466.3206161004</v>
+        <v>132060.5046227458</v>
       </c>
     </row>
   </sheetData>
@@ -9581,28 +9581,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.14524068810732</v>
+        <v>89.20959945335746</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.71230113281689</v>
+        <v>122.0605096217973</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.29133765631018</v>
+        <v>110.4112258965262</v>
       </c>
       <c r="AD2" t="n">
-        <v>72145.24068810733</v>
+        <v>89209.59945335746</v>
       </c>
       <c r="AE2" t="n">
-        <v>98712.30113281689</v>
+        <v>122060.5096217973</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.190248340460476e-06</v>
+        <v>1.44140059460791e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.456944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>89291.33765631018</v>
+        <v>110411.2258965262</v>
       </c>
     </row>
     <row r="3">
@@ -9687,28 +9687,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.70892124893956</v>
+        <v>86.77328001418968</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.37882139332133</v>
+        <v>118.7270298823017</v>
       </c>
       <c r="AC3" t="n">
-        <v>86.27600054458279</v>
+        <v>107.3958887847988</v>
       </c>
       <c r="AD3" t="n">
-        <v>69708.92124893956</v>
+        <v>86773.28001418967</v>
       </c>
       <c r="AE3" t="n">
-        <v>95378.82139332133</v>
+        <v>118727.0298823018</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.415592427402617e-06</v>
+        <v>1.48657443082745e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.352777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>86276.00054458278</v>
+        <v>107395.8887847988</v>
       </c>
     </row>
   </sheetData>
@@ -9984,28 +9984,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>213.2882251417564</v>
+        <v>242.5603881741087</v>
       </c>
       <c r="AB2" t="n">
-        <v>291.8303592512121</v>
+        <v>331.8818241087471</v>
       </c>
       <c r="AC2" t="n">
-        <v>263.9784793508441</v>
+        <v>300.2074886149727</v>
       </c>
       <c r="AD2" t="n">
-        <v>213288.2251417564</v>
+        <v>242560.3881741087</v>
       </c>
       <c r="AE2" t="n">
-        <v>291830.3592512121</v>
+        <v>331881.8241087471</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.009921956724743e-06</v>
+        <v>7.101869750228852e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.386111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>263978.479350844</v>
+        <v>300207.4886149727</v>
       </c>
     </row>
     <row r="3">
@@ -10090,28 +10090,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.1392098107292</v>
+        <v>137.7677132993588</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.6432787970668</v>
+        <v>188.4998632186548</v>
       </c>
       <c r="AC3" t="n">
-        <v>146.216271136486</v>
+        <v>170.5097008343391</v>
       </c>
       <c r="AD3" t="n">
-        <v>118139.2098107292</v>
+        <v>137767.7132993588</v>
       </c>
       <c r="AE3" t="n">
-        <v>161643.2787970668</v>
+        <v>188499.8632186548</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.764466892925527e-06</v>
+        <v>1.020929920703533e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.745833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>146216.271136486</v>
+        <v>170509.7008343391</v>
       </c>
     </row>
     <row r="4">
@@ -10196,28 +10196,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>103.5341608149439</v>
+        <v>122.9920721029813</v>
       </c>
       <c r="AB4" t="n">
-        <v>141.6600064317562</v>
+        <v>168.2831790784973</v>
       </c>
       <c r="AC4" t="n">
-        <v>128.1401742390153</v>
+        <v>152.2224686542174</v>
       </c>
       <c r="AD4" t="n">
-        <v>103534.1608149439</v>
+        <v>122992.0721029813</v>
       </c>
       <c r="AE4" t="n">
-        <v>141660.0064317562</v>
+        <v>168283.1790784973</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.389068719291934e-06</v>
+        <v>1.131551545375561e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.380555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>128140.1742390153</v>
+        <v>152222.4686542174</v>
       </c>
     </row>
     <row r="5">
@@ -10302,28 +10302,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>96.91488736640007</v>
+        <v>106.729228619266</v>
       </c>
       <c r="AB5" t="n">
-        <v>132.6032244777284</v>
+        <v>146.0316391580707</v>
       </c>
       <c r="AC5" t="n">
-        <v>119.9477588434037</v>
+        <v>132.0945844735569</v>
       </c>
       <c r="AD5" t="n">
-        <v>96914.88736640007</v>
+        <v>106729.228619266</v>
       </c>
       <c r="AE5" t="n">
-        <v>132603.2244777284</v>
+        <v>146031.6391580707</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.69134055161862e-06</v>
+        <v>1.185086132968895e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.227777777777777</v>
       </c>
       <c r="AH5" t="n">
-        <v>119947.7588434037</v>
+        <v>132094.5844735569</v>
       </c>
     </row>
     <row r="6">
@@ -10408,28 +10408,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>92.13639423715233</v>
+        <v>101.9507354900182</v>
       </c>
       <c r="AB6" t="n">
-        <v>126.0650793660564</v>
+        <v>139.4934940463987</v>
       </c>
       <c r="AC6" t="n">
-        <v>114.0336051248434</v>
+        <v>126.1804307549965</v>
       </c>
       <c r="AD6" t="n">
-        <v>92136.39423715233</v>
+        <v>101950.7354900182</v>
       </c>
       <c r="AE6" t="n">
-        <v>126065.0793660564</v>
+        <v>139493.4940463987</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.893321575380125e-06</v>
+        <v>1.220858473135429e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.133333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>114033.6051248434</v>
+        <v>126180.4307549965</v>
       </c>
     </row>
     <row r="7">
@@ -10514,28 +10514,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>89.05254033158556</v>
+        <v>98.86688158445142</v>
       </c>
       <c r="AB7" t="n">
-        <v>121.8456144024297</v>
+        <v>135.274029082772</v>
       </c>
       <c r="AC7" t="n">
-        <v>110.2168399752876</v>
+        <v>122.3636656054407</v>
       </c>
       <c r="AD7" t="n">
-        <v>89052.54033158557</v>
+        <v>98866.88158445142</v>
       </c>
       <c r="AE7" t="n">
-        <v>121845.6144024297</v>
+        <v>135274.029082772</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.006051553999902e-06</v>
+        <v>1.240823790010514e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.081944444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>110216.8399752876</v>
+        <v>122363.6656054407</v>
       </c>
     </row>
     <row r="8">
@@ -10620,28 +10620,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>89.12081099842541</v>
+        <v>98.93515225129126</v>
       </c>
       <c r="AB8" t="n">
-        <v>121.9390253406892</v>
+        <v>135.3674400210315</v>
       </c>
       <c r="AC8" t="n">
-        <v>110.3013359047027</v>
+        <v>122.4481615348558</v>
       </c>
       <c r="AD8" t="n">
-        <v>89120.81099842541</v>
+        <v>98935.15225129126</v>
       </c>
       <c r="AE8" t="n">
-        <v>121939.0253406892</v>
+        <v>135367.4400210315</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.999365500095557e-06</v>
+        <v>1.239639640182061e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.084722222222223</v>
       </c>
       <c r="AH8" t="n">
-        <v>110301.3359047027</v>
+        <v>122448.1615348558</v>
       </c>
     </row>
   </sheetData>
@@ -10917,28 +10917,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>256.9422126261205</v>
+        <v>296.7802976922831</v>
       </c>
       <c r="AB2" t="n">
-        <v>351.5596708052954</v>
+        <v>406.0678963252578</v>
       </c>
       <c r="AC2" t="n">
-        <v>318.0073092408398</v>
+        <v>367.3133462198463</v>
       </c>
       <c r="AD2" t="n">
-        <v>256942.2126261205</v>
+        <v>296780.2976922831</v>
       </c>
       <c r="AE2" t="n">
-        <v>351559.6708052953</v>
+        <v>406067.8963252578</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.546528997480049e-06</v>
+        <v>6.184836891514913e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.966666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>318007.3092408398</v>
+        <v>367313.3462198463</v>
       </c>
     </row>
     <row r="3">
@@ -11023,28 +11023,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>130.9317425931692</v>
+        <v>150.9361259808202</v>
       </c>
       <c r="AB3" t="n">
-        <v>179.1465865167077</v>
+        <v>206.5174663987872</v>
       </c>
       <c r="AC3" t="n">
-        <v>162.0490877334166</v>
+        <v>186.8077292548304</v>
       </c>
       <c r="AD3" t="n">
-        <v>130931.7425931692</v>
+        <v>150936.1259808202</v>
       </c>
       <c r="AE3" t="n">
-        <v>179146.5865167077</v>
+        <v>206517.4663987872</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.413716565378819e-06</v>
+        <v>9.441048968597552e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.908333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>162049.0877334166</v>
+        <v>186807.7292548304</v>
       </c>
     </row>
     <row r="4">
@@ -11129,28 +11129,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>113.0329725705075</v>
+        <v>132.8667637575663</v>
       </c>
       <c r="AB4" t="n">
-        <v>154.6566997337108</v>
+        <v>181.7941678409435</v>
       </c>
       <c r="AC4" t="n">
-        <v>139.8964813732091</v>
+        <v>164.4439876119719</v>
       </c>
       <c r="AD4" t="n">
-        <v>113032.9725705075</v>
+        <v>132866.7637575663</v>
       </c>
       <c r="AE4" t="n">
-        <v>154656.6997337108</v>
+        <v>181794.1678409435</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.078566968961573e-06</v>
+        <v>1.060049001823762e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.480555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>139896.4813732091</v>
+        <v>164443.9876119719</v>
       </c>
     </row>
     <row r="5">
@@ -11235,28 +11235,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>105.2670365328174</v>
+        <v>125.1008277198762</v>
       </c>
       <c r="AB5" t="n">
-        <v>144.0310034380307</v>
+        <v>171.1684715452634</v>
       </c>
       <c r="AC5" t="n">
-        <v>130.2848866187269</v>
+        <v>154.8323928574897</v>
       </c>
       <c r="AD5" t="n">
-        <v>105267.0365328174</v>
+        <v>125100.8277198762</v>
       </c>
       <c r="AE5" t="n">
-        <v>144031.0034380307</v>
+        <v>171168.4715452634</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.407640495941121e-06</v>
+        <v>1.11743655148514e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.302777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>130284.8866187269</v>
+        <v>154832.3928574897</v>
       </c>
     </row>
     <row r="6">
@@ -11341,28 +11341,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>99.8508581239505</v>
+        <v>109.853139326327</v>
       </c>
       <c r="AB6" t="n">
-        <v>136.6203491940952</v>
+        <v>150.3059116046834</v>
       </c>
       <c r="AC6" t="n">
-        <v>123.5814948149117</v>
+        <v>135.9609263568452</v>
       </c>
       <c r="AD6" t="n">
-        <v>99850.8581239505</v>
+        <v>109853.139326327</v>
       </c>
       <c r="AE6" t="n">
-        <v>136620.3491940952</v>
+        <v>150305.9116046834</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.631593312913314e-06</v>
+        <v>1.156491967226911e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.190277777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>123581.4948149117</v>
+        <v>135960.9263568452</v>
       </c>
     </row>
     <row r="7">
@@ -11447,28 +11447,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>96.23947388407431</v>
+        <v>106.2417550864509</v>
       </c>
       <c r="AB7" t="n">
-        <v>131.6790939540709</v>
+        <v>145.364656364659</v>
       </c>
       <c r="AC7" t="n">
-        <v>119.1118260398985</v>
+        <v>131.4912575818319</v>
       </c>
       <c r="AD7" t="n">
-        <v>96239.47388407431</v>
+        <v>106241.7550864509</v>
       </c>
       <c r="AE7" t="n">
-        <v>131679.0939540708</v>
+        <v>145364.656364659</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.764746212255964e-06</v>
+        <v>1.179712670191746e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.127777777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>119111.8260398985</v>
+        <v>131491.2575818319</v>
       </c>
     </row>
     <row r="8">
@@ -11553,28 +11553,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>93.549868206588</v>
+        <v>103.5521494089646</v>
       </c>
       <c r="AB8" t="n">
-        <v>127.9990568091079</v>
+        <v>141.684619219696</v>
       </c>
       <c r="AC8" t="n">
-        <v>115.783006475085</v>
+        <v>128.1624380170184</v>
       </c>
       <c r="AD8" t="n">
-        <v>93549.868206588</v>
+        <v>103552.1494089646</v>
       </c>
       <c r="AE8" t="n">
-        <v>127999.0568091079</v>
+        <v>141684.619219696</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.854479687899925e-06</v>
+        <v>1.195361404798483e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.0875</v>
       </c>
       <c r="AH8" t="n">
-        <v>115783.006475085</v>
+        <v>128162.4380170184</v>
       </c>
     </row>
     <row r="9">
@@ -11659,28 +11659,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>92.82709985186781</v>
+        <v>102.8293810542444</v>
       </c>
       <c r="AB9" t="n">
-        <v>127.0101332598908</v>
+        <v>140.6956956704789</v>
       </c>
       <c r="AC9" t="n">
-        <v>114.888464401442</v>
+        <v>127.2678959433754</v>
       </c>
       <c r="AD9" t="n">
-        <v>92827.09985186781</v>
+        <v>102829.3810542444</v>
       </c>
       <c r="AE9" t="n">
-        <v>127010.1332598908</v>
+        <v>140695.6956704789</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.87519913219123e-06</v>
+        <v>1.198974694962348e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.077777777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>114888.4644014419</v>
+        <v>127267.8959433754</v>
       </c>
     </row>
     <row r="10">
@@ -11765,28 +11765,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>93.08485027395109</v>
+        <v>103.0871314763276</v>
       </c>
       <c r="AB10" t="n">
-        <v>127.362798758531</v>
+        <v>141.0483611691192</v>
       </c>
       <c r="AC10" t="n">
-        <v>115.2074719998612</v>
+        <v>127.5869035417947</v>
       </c>
       <c r="AD10" t="n">
-        <v>93084.85027395109</v>
+        <v>103087.1314763276</v>
       </c>
       <c r="AE10" t="n">
-        <v>127362.798758531</v>
+        <v>141048.3611691192</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.875046783336146e-06</v>
+        <v>1.198948126652319e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.077777777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>115207.4719998612</v>
+        <v>127586.9035417947</v>
       </c>
     </row>
   </sheetData>
@@ -12062,28 +12062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>405.3005210033886</v>
+        <v>446.4796300981938</v>
       </c>
       <c r="AB2" t="n">
-        <v>554.5500534338746</v>
+        <v>610.8931271914646</v>
       </c>
       <c r="AC2" t="n">
-        <v>501.6245746500332</v>
+        <v>552.5903445261994</v>
       </c>
       <c r="AD2" t="n">
-        <v>405300.5210033886</v>
+        <v>446479.6300981938</v>
       </c>
       <c r="AE2" t="n">
-        <v>554550.0534338746</v>
+        <v>610893.1271914646</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.742788403952953e-06</v>
+        <v>4.662558504636891e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.445833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>501624.5746500332</v>
+        <v>552590.3445261994</v>
       </c>
     </row>
     <row r="3">
@@ -12168,28 +12168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>169.4452084388838</v>
+        <v>190.0348077405616</v>
       </c>
       <c r="AB3" t="n">
-        <v>231.8424095809851</v>
+        <v>260.0140076945397</v>
       </c>
       <c r="AC3" t="n">
-        <v>209.7156954035083</v>
+        <v>235.1986357322006</v>
       </c>
       <c r="AD3" t="n">
-        <v>169445.2084388838</v>
+        <v>190034.8077405616</v>
       </c>
       <c r="AE3" t="n">
-        <v>231842.4095809851</v>
+        <v>260014.0076945397</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.792821276540779e-06</v>
+        <v>8.147478519281052e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.261111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>209715.6954035083</v>
+        <v>235198.6357322006</v>
       </c>
     </row>
     <row r="4">
@@ -12274,28 +12274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>132.837514190449</v>
+        <v>153.5123648381474</v>
       </c>
       <c r="AB4" t="n">
-        <v>181.7541472928136</v>
+        <v>210.0423900590176</v>
       </c>
       <c r="AC4" t="n">
-        <v>164.4077865687864</v>
+        <v>189.9962391481908</v>
       </c>
       <c r="AD4" t="n">
-        <v>132837.5141904489</v>
+        <v>153512.3648381474</v>
       </c>
       <c r="AE4" t="n">
-        <v>181754.1472928136</v>
+        <v>210042.3900590176</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.519692554727539e-06</v>
+        <v>9.383111517802398e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="AH4" t="n">
-        <v>164407.7865687864</v>
+        <v>189996.2391481908</v>
       </c>
     </row>
     <row r="5">
@@ -12380,28 +12380,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>122.2276128439742</v>
+        <v>142.7318712910804</v>
       </c>
       <c r="AB5" t="n">
-        <v>167.2372121947619</v>
+        <v>195.2920431861189</v>
       </c>
       <c r="AC5" t="n">
-        <v>151.2763273818417</v>
+        <v>176.6536446785951</v>
       </c>
       <c r="AD5" t="n">
-        <v>122227.6128439742</v>
+        <v>142731.8712910804</v>
       </c>
       <c r="AE5" t="n">
-        <v>167237.2121947619</v>
+        <v>195292.0431861189</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.88834849128716e-06</v>
+        <v>1.000980217677327e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.468055555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>151276.3273818417</v>
+        <v>176653.6446785951</v>
       </c>
     </row>
     <row r="6">
@@ -12486,28 +12486,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>115.8160948635257</v>
+        <v>136.3203533106319</v>
       </c>
       <c r="AB6" t="n">
-        <v>158.4646904377063</v>
+        <v>186.5195214290634</v>
       </c>
       <c r="AC6" t="n">
-        <v>143.3410427889651</v>
+        <v>168.7183600857185</v>
       </c>
       <c r="AD6" t="n">
-        <v>115816.0948635257</v>
+        <v>136320.3533106319</v>
       </c>
       <c r="AE6" t="n">
-        <v>158464.6904377063</v>
+        <v>186519.5214290634</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.133187794985512e-06</v>
+        <v>1.042601276599804e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.330555555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>143341.0427889651</v>
+        <v>168718.3600857185</v>
       </c>
     </row>
     <row r="7">
@@ -12592,28 +12592,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>111.770658154905</v>
+        <v>122.1081729873052</v>
       </c>
       <c r="AB7" t="n">
-        <v>152.9295454609026</v>
+        <v>167.0737893135529</v>
       </c>
       <c r="AC7" t="n">
-        <v>138.334164280121</v>
+        <v>151.1285013510498</v>
       </c>
       <c r="AD7" t="n">
-        <v>111770.658154905</v>
+        <v>122108.1729873052</v>
       </c>
       <c r="AE7" t="n">
-        <v>152929.5454609026</v>
+        <v>167073.7893135529</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.289061465808487e-06</v>
+        <v>1.069098767565465e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.247222222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>138334.164280121</v>
+        <v>151128.5013510498</v>
       </c>
     </row>
     <row r="8">
@@ -12698,28 +12698,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>108.232239520779</v>
+        <v>118.5697543531793</v>
       </c>
       <c r="AB8" t="n">
-        <v>148.0881249816811</v>
+        <v>162.2323688343314</v>
       </c>
       <c r="AC8" t="n">
-        <v>133.9548021764585</v>
+        <v>146.7491392473873</v>
       </c>
       <c r="AD8" t="n">
-        <v>108232.239520779</v>
+        <v>118569.7543531793</v>
       </c>
       <c r="AE8" t="n">
-        <v>148088.1249816811</v>
+        <v>162232.3688343314</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.406260820191422e-06</v>
+        <v>1.089021881055684e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.1875</v>
       </c>
       <c r="AH8" t="n">
-        <v>133954.8021764585</v>
+        <v>146749.1392473873</v>
       </c>
     </row>
     <row r="9">
@@ -12804,28 +12804,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>105.3783035521323</v>
+        <v>115.7158183845326</v>
       </c>
       <c r="AB9" t="n">
-        <v>144.1832438826117</v>
+        <v>158.3274877352621</v>
       </c>
       <c r="AC9" t="n">
-        <v>130.422597448948</v>
+        <v>143.2169345198768</v>
       </c>
       <c r="AD9" t="n">
-        <v>105378.3035521323</v>
+        <v>115715.8183845326</v>
       </c>
       <c r="AE9" t="n">
-        <v>144183.2438826117</v>
+        <v>158327.4877352621</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.495079402433948e-06</v>
+        <v>1.104120451379513e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.144444444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>130422.597448948</v>
+        <v>143216.9345198768</v>
       </c>
     </row>
     <row r="10">
@@ -12910,28 +12910,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>102.8985916071815</v>
+        <v>113.2361064395817</v>
       </c>
       <c r="AB10" t="n">
-        <v>140.7903926023616</v>
+        <v>154.9346364550119</v>
       </c>
       <c r="AC10" t="n">
-        <v>127.3535551329872</v>
+        <v>140.147892203916</v>
       </c>
       <c r="AD10" t="n">
-        <v>102898.5916071815</v>
+        <v>113236.1064395818</v>
       </c>
       <c r="AE10" t="n">
-        <v>140790.3926023616</v>
+        <v>154934.6364550119</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.57257508594688e-06</v>
+        <v>1.117294203963384e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.106944444444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>127353.5551329872</v>
+        <v>140147.892203916</v>
       </c>
     </row>
     <row r="11">
@@ -13016,28 +13016,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>100.8946482608916</v>
+        <v>111.2321630932918</v>
       </c>
       <c r="AB11" t="n">
-        <v>138.0485089082281</v>
+        <v>152.1927527608784</v>
       </c>
       <c r="AC11" t="n">
-        <v>124.873352970363</v>
+        <v>137.6676900412918</v>
       </c>
       <c r="AD11" t="n">
-        <v>100894.6482608916</v>
+        <v>111232.1630932918</v>
       </c>
       <c r="AE11" t="n">
-        <v>138048.5089082281</v>
+        <v>152192.7527608784</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.61992538972518e-06</v>
+        <v>1.125343441785029e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.084722222222223</v>
       </c>
       <c r="AH11" t="n">
-        <v>124873.352970363</v>
+        <v>137667.6900412918</v>
       </c>
     </row>
     <row r="12">
@@ -13122,28 +13122,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>99.92722990102571</v>
+        <v>110.264744733426</v>
       </c>
       <c r="AB12" t="n">
-        <v>136.7248444287744</v>
+        <v>150.8690882814248</v>
       </c>
       <c r="AC12" t="n">
-        <v>123.6760171710532</v>
+        <v>136.4703542419821</v>
       </c>
       <c r="AD12" t="n">
-        <v>99927.22990102571</v>
+        <v>110264.744733426</v>
       </c>
       <c r="AE12" t="n">
-        <v>136724.8444287744</v>
+        <v>150869.0882814248</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.646247453005664e-06</v>
+        <v>1.129818018089607e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.073611111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>123676.0171710532</v>
+        <v>136470.354241982</v>
       </c>
     </row>
     <row r="13">
@@ -13228,28 +13228,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>100.2194568362926</v>
+        <v>110.5569716686929</v>
       </c>
       <c r="AB13" t="n">
-        <v>137.1246822137489</v>
+        <v>151.2689260663992</v>
       </c>
       <c r="AC13" t="n">
-        <v>124.0376949990057</v>
+        <v>136.8320320699345</v>
       </c>
       <c r="AD13" t="n">
-        <v>100219.4568362926</v>
+        <v>110556.9716686929</v>
       </c>
       <c r="AE13" t="n">
-        <v>137124.6822137489</v>
+        <v>151268.9260663992</v>
       </c>
       <c r="AF13" t="n">
-        <v>6.646541554271367e-06</v>
+        <v>1.12986801335558e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>4</v>
+        <v>3.072222222222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>124037.6949990057</v>
+        <v>136832.0320699345</v>
       </c>
     </row>
   </sheetData>
@@ -13525,28 +13525,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.6589012575139</v>
+        <v>197.3979994864039</v>
       </c>
       <c r="AB2" t="n">
-        <v>230.7665494060108</v>
+        <v>270.0886514822898</v>
       </c>
       <c r="AC2" t="n">
-        <v>208.742513813654</v>
+        <v>244.3117696567022</v>
       </c>
       <c r="AD2" t="n">
-        <v>168658.9012575139</v>
+        <v>197397.9994864039</v>
       </c>
       <c r="AE2" t="n">
-        <v>230766.5494060108</v>
+        <v>270088.6514822898</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.523141421094285e-06</v>
+        <v>8.156294338158657e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.884722222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>208742.513813654</v>
+        <v>244311.7696567022</v>
       </c>
     </row>
     <row r="3">
@@ -13631,28 +13631,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.3961694280899</v>
+        <v>124.6124621503976</v>
       </c>
       <c r="AB3" t="n">
-        <v>144.2076887622837</v>
+        <v>170.5002682279348</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.4447093436127</v>
+        <v>154.2279619269374</v>
       </c>
       <c r="AD3" t="n">
-        <v>105396.1694280899</v>
+        <v>124612.4621503976</v>
       </c>
       <c r="AE3" t="n">
-        <v>144207.6887622837</v>
+        <v>170500.2682279348</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.171116307880853e-06</v>
+        <v>1.112798303571724e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.580555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>130444.7093436127</v>
+        <v>154227.9619269375</v>
       </c>
     </row>
     <row r="4">
@@ -13737,28 +13737,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>93.95604239822467</v>
+        <v>103.5642782679296</v>
       </c>
       <c r="AB4" t="n">
-        <v>128.5548022572455</v>
+        <v>141.7012144596194</v>
       </c>
       <c r="AC4" t="n">
-        <v>116.2857123576462</v>
+        <v>128.1774494305351</v>
       </c>
       <c r="AD4" t="n">
-        <v>93956.04239822467</v>
+        <v>103564.2782679296</v>
       </c>
       <c r="AE4" t="n">
-        <v>128554.8022572455</v>
+        <v>141701.2144596194</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.727122894358222e-06</v>
+        <v>1.213059448450257e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.284722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>116285.7123576462</v>
+        <v>128177.4494305351</v>
       </c>
     </row>
     <row r="5">
@@ -13843,28 +13843,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>87.71711392100123</v>
+        <v>97.32534979070616</v>
       </c>
       <c r="AB5" t="n">
-        <v>120.0184250726139</v>
+        <v>133.1648372749878</v>
       </c>
       <c r="AC5" t="n">
-        <v>108.5640350306325</v>
+        <v>120.4557721035214</v>
       </c>
       <c r="AD5" t="n">
-        <v>87717.11392100123</v>
+        <v>97325.34979070615</v>
       </c>
       <c r="AE5" t="n">
-        <v>120018.4250726139</v>
+        <v>133164.8372749878</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.015864512228442e-06</v>
+        <v>1.265126394932242e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="AH5" t="n">
-        <v>108564.0350306325</v>
+        <v>120455.7721035214</v>
       </c>
     </row>
     <row r="6">
@@ -13949,28 +13949,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>85.0055671796861</v>
+        <v>94.61380304939102</v>
       </c>
       <c r="AB6" t="n">
-        <v>116.3083671961489</v>
+        <v>129.4547793985228</v>
       </c>
       <c r="AC6" t="n">
-        <v>105.2080598707972</v>
+        <v>117.0997969436861</v>
       </c>
       <c r="AD6" t="n">
-        <v>85005.5671796861</v>
+        <v>94613.80304939102</v>
       </c>
       <c r="AE6" t="n">
-        <v>116308.3671961489</v>
+        <v>129454.7793985228</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.143133544898512e-06</v>
+        <v>1.288076013216312e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.093055555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>105208.0598707972</v>
+        <v>117099.7969436861</v>
       </c>
     </row>
     <row r="7">
@@ -14055,28 +14055,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>85.29938771450335</v>
+        <v>94.90762358420825</v>
       </c>
       <c r="AB7" t="n">
-        <v>116.7103854143328</v>
+        <v>129.8567976167067</v>
       </c>
       <c r="AC7" t="n">
-        <v>105.5717100344738</v>
+        <v>117.4634471073628</v>
       </c>
       <c r="AD7" t="n">
-        <v>85299.38771450335</v>
+        <v>94907.62358420825</v>
       </c>
       <c r="AE7" t="n">
-        <v>116710.3854143328</v>
+        <v>129856.7976167067</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.142974458607675e-06</v>
+        <v>1.288047326193457e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.093055555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>105571.7100344738</v>
+        <v>117463.4471073628</v>
       </c>
     </row>
   </sheetData>
@@ -14352,28 +14352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.7515737262067</v>
+        <v>145.1697633791383</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.4270950568975</v>
+        <v>198.6276746932064</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.8754565111722</v>
+        <v>179.6709281962355</v>
       </c>
       <c r="AD2" t="n">
-        <v>126751.5737262067</v>
+        <v>145169.7633791383</v>
       </c>
       <c r="AE2" t="n">
-        <v>173427.0950568976</v>
+        <v>198627.6746932064</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.440263643144595e-06</v>
+        <v>1.014979301734208e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.230555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>156875.4565111722</v>
+        <v>179670.9281962354</v>
       </c>
     </row>
     <row r="3">
@@ -14458,28 +14458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.22860980348504</v>
+        <v>105.5614586018451</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.3500321877479</v>
+        <v>144.4338447018591</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.9594326246026</v>
+        <v>130.649281277727</v>
       </c>
       <c r="AD3" t="n">
-        <v>87228.60980348504</v>
+        <v>105561.4586018451</v>
       </c>
       <c r="AE3" t="n">
-        <v>119350.0321877479</v>
+        <v>144433.8447018591</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.860774165823795e-06</v>
+        <v>1.280001159678879e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.354166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>107959.4326246026</v>
+        <v>130649.281277727</v>
       </c>
     </row>
     <row r="4">
@@ -14564,28 +14564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.15421645802967</v>
+        <v>88.40602646605682</v>
       </c>
       <c r="AB4" t="n">
-        <v>108.3022909954076</v>
+        <v>120.961025609435</v>
       </c>
       <c r="AC4" t="n">
-        <v>97.96607234605352</v>
+        <v>109.4166750951678</v>
       </c>
       <c r="AD4" t="n">
-        <v>79154.21645802967</v>
+        <v>88406.02646605682</v>
       </c>
       <c r="AE4" t="n">
-        <v>108302.2909954076</v>
+        <v>120961.025609435</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.321793796492663e-06</v>
+        <v>1.366012686603993e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.143055555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>97966.07234605352</v>
+        <v>109416.6750951678</v>
       </c>
     </row>
     <row r="5">
@@ -14670,28 +14670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>79.09860729536967</v>
+        <v>88.35041730339682</v>
       </c>
       <c r="AB5" t="n">
-        <v>108.2262040857531</v>
+        <v>120.8849386997805</v>
       </c>
       <c r="AC5" t="n">
-        <v>97.89724706426782</v>
+        <v>109.3478498133821</v>
       </c>
       <c r="AD5" t="n">
-        <v>79098.60729536967</v>
+        <v>88350.41730339683</v>
       </c>
       <c r="AE5" t="n">
-        <v>108226.2040857531</v>
+        <v>120884.9386997805</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.333725289450305e-06</v>
+        <v>1.368238721808382e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.138888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>97897.24706426781</v>
+        <v>109347.8498133821</v>
       </c>
     </row>
   </sheetData>
@@ -26716,28 +26716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.3167093969009</v>
+        <v>112.2503546898861</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.0482827563391</v>
+        <v>153.585887422781</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.7320957705107</v>
+        <v>138.9278658863396</v>
       </c>
       <c r="AD2" t="n">
-        <v>94316.7093969009</v>
+        <v>112250.3546898861</v>
       </c>
       <c r="AE2" t="n">
-        <v>129048.2827563391</v>
+        <v>153585.887422781</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.190832482334304e-06</v>
+        <v>1.190520044193233e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.845833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>116732.0957705107</v>
+        <v>138927.8658863396</v>
       </c>
     </row>
     <row r="3">
@@ -26822,28 +26822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.91838990814145</v>
+        <v>83.88530206318508</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.5066462383748</v>
+        <v>114.7755710411441</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.72355579039163</v>
+        <v>103.8215516295326</v>
       </c>
       <c r="AD3" t="n">
-        <v>74918.38990814146</v>
+        <v>83885.30206318508</v>
       </c>
       <c r="AE3" t="n">
-        <v>102506.6462383748</v>
+        <v>114775.5710411441</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.393719770603115e-06</v>
+        <v>1.421839730467362e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.219444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>92723.55579039163</v>
+        <v>103821.5516295327</v>
       </c>
     </row>
     <row r="4">
@@ -26928,28 +26928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>74.66606569722757</v>
+        <v>83.63297785227118</v>
       </c>
       <c r="AB4" t="n">
-        <v>102.161405121244</v>
+        <v>114.4303299240133</v>
       </c>
       <c r="AC4" t="n">
-        <v>92.41126400093074</v>
+        <v>103.5092598400718</v>
       </c>
       <c r="AD4" t="n">
-        <v>74666.06569722756</v>
+        <v>83632.97785227119</v>
       </c>
       <c r="AE4" t="n">
-        <v>102161.405121244</v>
+        <v>114430.3299240133</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.428176140125992e-06</v>
+        <v>1.428465818103261e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.205555555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>92411.26400093074</v>
+        <v>103509.2598400718</v>
       </c>
     </row>
   </sheetData>
@@ -27225,28 +27225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.3136458343474</v>
+        <v>82.94718713396023</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.73325578209895</v>
+        <v>113.4920008082695</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.07380119520171</v>
+        <v>102.6604835381811</v>
       </c>
       <c r="AD2" t="n">
-        <v>66313.64583434739</v>
+        <v>82947.18713396022</v>
       </c>
       <c r="AE2" t="n">
-        <v>90733.25578209895</v>
+        <v>113492.0008082695</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.301315735944127e-06</v>
+        <v>1.505968888201347e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>82073.80119520171</v>
+        <v>102660.4835381811</v>
       </c>
     </row>
   </sheetData>
@@ -27522,28 +27522,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>233.6526179316267</v>
+        <v>263.3832958421918</v>
       </c>
       <c r="AB2" t="n">
-        <v>319.6938198799017</v>
+        <v>360.3726450222266</v>
       </c>
       <c r="AC2" t="n">
-        <v>289.182690403753</v>
+        <v>325.9791855674885</v>
       </c>
       <c r="AD2" t="n">
-        <v>233652.6179316267</v>
+        <v>263383.2958421918</v>
       </c>
       <c r="AE2" t="n">
-        <v>319693.8198799017</v>
+        <v>360372.6450222266</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.774424596612604e-06</v>
+        <v>6.631515123593357e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.662500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>289182.690403753</v>
+        <v>325979.1855674885</v>
       </c>
     </row>
     <row r="3">
@@ -27628,28 +27628,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.3292737163983</v>
+        <v>144.1497256567728</v>
       </c>
       <c r="AB3" t="n">
-        <v>170.1127973191451</v>
+        <v>197.2320140805782</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.8774706978637</v>
+        <v>178.4084674736541</v>
       </c>
       <c r="AD3" t="n">
-        <v>124329.2737163983</v>
+        <v>144149.7256567728</v>
       </c>
       <c r="AE3" t="n">
-        <v>170112.7973191451</v>
+        <v>197232.0140805782</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.589164249790306e-06</v>
+        <v>9.819941106783739e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.823611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>153877.4706978637</v>
+        <v>178408.4674736541</v>
       </c>
     </row>
     <row r="4">
@@ -27734,28 +27734,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>108.2897890083089</v>
+        <v>127.9396487480912</v>
       </c>
       <c r="AB4" t="n">
-        <v>148.1668667294236</v>
+        <v>175.05267171601</v>
       </c>
       <c r="AC4" t="n">
-        <v>134.0260289223112</v>
+        <v>158.3458904154506</v>
       </c>
       <c r="AD4" t="n">
-        <v>108289.7890083089</v>
+        <v>127939.6487480912</v>
       </c>
       <c r="AE4" t="n">
-        <v>148166.8667294236</v>
+        <v>175052.67171601</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.228185258747997e-06</v>
+        <v>1.094267581156495e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.431944444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>134026.0289223112</v>
+        <v>158345.8904154506</v>
       </c>
     </row>
     <row r="5">
@@ -27840,28 +27840,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>100.9840005209406</v>
+        <v>110.8943159996789</v>
       </c>
       <c r="AB5" t="n">
-        <v>138.1707646123706</v>
+        <v>151.7304954626356</v>
       </c>
       <c r="AC5" t="n">
-        <v>124.9839407616892</v>
+        <v>137.249549930811</v>
       </c>
       <c r="AD5" t="n">
-        <v>100984.0005209406</v>
+        <v>110894.3159996789</v>
       </c>
       <c r="AE5" t="n">
-        <v>138170.7646123706</v>
+        <v>151730.4954626356</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.549926874382606e-06</v>
+        <v>1.150796313824387e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.2625</v>
       </c>
       <c r="AH5" t="n">
-        <v>124983.9407616892</v>
+        <v>137249.549930811</v>
       </c>
     </row>
     <row r="6">
@@ -27946,28 +27946,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>96.28524671549749</v>
+        <v>106.1955621942358</v>
       </c>
       <c r="AB6" t="n">
-        <v>131.7417223613788</v>
+        <v>145.3014532116438</v>
       </c>
       <c r="AC6" t="n">
-        <v>119.1684772799125</v>
+        <v>131.4340864490343</v>
       </c>
       <c r="AD6" t="n">
-        <v>96285.24671549749</v>
+        <v>106195.5621942358</v>
       </c>
       <c r="AE6" t="n">
-        <v>131741.7223613788</v>
+        <v>145301.4532116438</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.745649177150288e-06</v>
+        <v>1.185183950339718e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.168055555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>119168.4772799125</v>
+        <v>131434.0864490343</v>
       </c>
     </row>
     <row r="7">
@@ -28052,28 +28052,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>92.4720502735</v>
+        <v>102.3823657522383</v>
       </c>
       <c r="AB7" t="n">
-        <v>126.5243387630863</v>
+        <v>140.0840696133513</v>
       </c>
       <c r="AC7" t="n">
-        <v>114.4490334495955</v>
+        <v>126.7146426187172</v>
       </c>
       <c r="AD7" t="n">
-        <v>92472.0502735</v>
+        <v>102382.3657522383</v>
       </c>
       <c r="AE7" t="n">
-        <v>126524.3387630863</v>
+        <v>140084.0696133513</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.880900674110029e-06</v>
+        <v>1.208947104818473e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.105555555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>114449.0334495955</v>
+        <v>126714.6426187172</v>
       </c>
     </row>
     <row r="8">
@@ -28158,28 +28158,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>90.73439193547561</v>
+        <v>100.6447074142139</v>
       </c>
       <c r="AB8" t="n">
-        <v>124.146797964927</v>
+        <v>137.706528815192</v>
       </c>
       <c r="AC8" t="n">
-        <v>112.2984018083123</v>
+        <v>124.5640109774341</v>
       </c>
       <c r="AD8" t="n">
-        <v>90734.39193547561</v>
+        <v>100644.7074142139</v>
       </c>
       <c r="AE8" t="n">
-        <v>124146.797964927</v>
+        <v>137706.528815192</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.948911096927101e-06</v>
+        <v>1.220896267821441e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.075</v>
       </c>
       <c r="AH8" t="n">
-        <v>112298.4018083123</v>
+        <v>124564.0109774341</v>
       </c>
     </row>
     <row r="9">
@@ -28264,28 +28264,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>91.03320945442567</v>
+        <v>100.943524933164</v>
       </c>
       <c r="AB9" t="n">
-        <v>124.5556532772528</v>
+        <v>138.1153841275178</v>
       </c>
       <c r="AC9" t="n">
-        <v>112.6682365434619</v>
+        <v>124.9338457125837</v>
       </c>
       <c r="AD9" t="n">
-        <v>91033.20945442567</v>
+        <v>100943.524933164</v>
       </c>
       <c r="AE9" t="n">
-        <v>124555.6532772528</v>
+        <v>138115.3841275178</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.947834008782939e-06</v>
+        <v>1.220707027683385e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.076388888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>112668.2365434619</v>
+        <v>124933.8457125837</v>
       </c>
     </row>
   </sheetData>
@@ -28561,28 +28561,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>364.9252704717173</v>
+        <v>395.699080297515</v>
       </c>
       <c r="AB2" t="n">
-        <v>499.3068544261016</v>
+        <v>541.4129386744297</v>
       </c>
       <c r="AC2" t="n">
-        <v>451.6537090212452</v>
+        <v>489.7412476851733</v>
       </c>
       <c r="AD2" t="n">
-        <v>364925.2704717173</v>
+        <v>395699.080297515</v>
       </c>
       <c r="AE2" t="n">
-        <v>499306.8544261015</v>
+        <v>541412.9386744297</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.938786179357074e-06</v>
+        <v>5.024996861328842e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.008333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>451653.7090212452</v>
+        <v>489741.2476851733</v>
       </c>
     </row>
     <row r="3">
@@ -28667,28 +28667,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>162.0280856892822</v>
+        <v>182.4586478880925</v>
       </c>
       <c r="AB3" t="n">
-        <v>221.6939750146238</v>
+        <v>249.6479715478133</v>
       </c>
       <c r="AC3" t="n">
-        <v>200.5358131887398</v>
+        <v>225.8219195264912</v>
       </c>
       <c r="AD3" t="n">
-        <v>162028.0856892822</v>
+        <v>182458.6478880925</v>
       </c>
       <c r="AE3" t="n">
-        <v>221693.9750146237</v>
+        <v>249647.9715478133</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.93781318592075e-06</v>
+        <v>8.443110266194405e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.170833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>200535.8131887398</v>
+        <v>225821.9195264912</v>
       </c>
     </row>
     <row r="4">
@@ -28773,28 +28773,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>127.4520739105591</v>
+        <v>147.9678874553899</v>
       </c>
       <c r="AB4" t="n">
-        <v>174.3855503130151</v>
+        <v>202.4561914988539</v>
       </c>
       <c r="AC4" t="n">
-        <v>157.7424381428466</v>
+        <v>183.1340567313102</v>
       </c>
       <c r="AD4" t="n">
-        <v>127452.0739105591</v>
+        <v>147967.8874553899</v>
       </c>
       <c r="AE4" t="n">
-        <v>174385.5503130151</v>
+        <v>202456.1914988538</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.659461638742691e-06</v>
+        <v>9.677048698287616e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.638888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>157742.4381428466</v>
+        <v>183134.0567313102</v>
       </c>
     </row>
     <row r="5">
@@ -28879,28 +28879,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>118.0187332364389</v>
+        <v>138.3639545806776</v>
       </c>
       <c r="AB5" t="n">
-        <v>161.4784374330716</v>
+        <v>189.3156668440635</v>
       </c>
       <c r="AC5" t="n">
-        <v>146.0671620009141</v>
+        <v>171.2476453067267</v>
       </c>
       <c r="AD5" t="n">
-        <v>118018.7332364389</v>
+        <v>138363.9545806776</v>
       </c>
       <c r="AE5" t="n">
-        <v>161478.4374330716</v>
+        <v>189315.6668440635</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.008794647752039e-06</v>
+        <v>1.027436921318624e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.427777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>146067.1620009141</v>
+        <v>171247.6453067267</v>
       </c>
     </row>
     <row r="6">
@@ -28985,28 +28985,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>112.291063940462</v>
+        <v>132.6362852847006</v>
       </c>
       <c r="AB6" t="n">
-        <v>153.6415876153843</v>
+        <v>181.4788170263762</v>
       </c>
       <c r="AC6" t="n">
-        <v>138.9782501307366</v>
+        <v>164.1587334365491</v>
       </c>
       <c r="AD6" t="n">
-        <v>112291.063940462</v>
+        <v>132636.2852847006</v>
       </c>
       <c r="AE6" t="n">
-        <v>153641.5876153843</v>
+        <v>181478.8170263762</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.236987984282338e-06</v>
+        <v>1.066455438824099e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.301388888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>138978.2501307366</v>
+        <v>164158.7334365491</v>
       </c>
     </row>
     <row r="7">
@@ -29091,28 +29091,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>108.0458075516837</v>
+        <v>118.3038038326501</v>
       </c>
       <c r="AB7" t="n">
-        <v>147.8330405367669</v>
+        <v>161.8684835992347</v>
       </c>
       <c r="AC7" t="n">
-        <v>133.7240626329536</v>
+        <v>146.419982708412</v>
       </c>
       <c r="AD7" t="n">
-        <v>108045.8075516837</v>
+        <v>118303.8038326501</v>
       </c>
       <c r="AE7" t="n">
-        <v>147833.0405367669</v>
+        <v>161868.4835992347</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.395196099992429e-06</v>
+        <v>1.093507263501384e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.219444444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>133724.0626329536</v>
+        <v>146419.982708412</v>
       </c>
     </row>
     <row r="8">
@@ -29197,28 +29197,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>104.8134798195623</v>
+        <v>115.0714761005288</v>
       </c>
       <c r="AB8" t="n">
-        <v>143.4104271334455</v>
+        <v>157.4458701959132</v>
       </c>
       <c r="AC8" t="n">
-        <v>129.7235372456668</v>
+        <v>142.4194573211252</v>
       </c>
       <c r="AD8" t="n">
-        <v>104813.4798195623</v>
+        <v>115071.4761005288</v>
       </c>
       <c r="AE8" t="n">
-        <v>143410.4271334455</v>
+        <v>157445.8701959132</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.508477262506496e-06</v>
+        <v>1.112877079858877e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.163888888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>129723.5372456668</v>
+        <v>142419.4573211251</v>
       </c>
     </row>
     <row r="9">
@@ -29303,28 +29303,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>101.9443807904059</v>
+        <v>112.2023770713724</v>
       </c>
       <c r="AB9" t="n">
-        <v>139.4847992660397</v>
+        <v>153.5202423285074</v>
       </c>
       <c r="AC9" t="n">
-        <v>126.1725657922717</v>
+        <v>138.86848586773</v>
       </c>
       <c r="AD9" t="n">
-        <v>101944.3807904059</v>
+        <v>112202.3770713724</v>
       </c>
       <c r="AE9" t="n">
-        <v>139484.7992660397</v>
+        <v>153520.2423285074</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.602927655859192e-06</v>
+        <v>1.129027044544379e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.119444444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>126172.5657922717</v>
+        <v>138868.4858677301</v>
       </c>
     </row>
     <row r="10">
@@ -29409,28 +29409,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>99.16091636445525</v>
+        <v>109.4189126454217</v>
       </c>
       <c r="AB10" t="n">
-        <v>135.6763404406721</v>
+        <v>149.7117835031398</v>
       </c>
       <c r="AC10" t="n">
-        <v>122.7275809319904</v>
+        <v>135.4235010074488</v>
       </c>
       <c r="AD10" t="n">
-        <v>99160.91636445525</v>
+        <v>109418.9126454217</v>
       </c>
       <c r="AE10" t="n">
-        <v>135676.3404406721</v>
+        <v>149711.7835031398</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.678695553823443e-06</v>
+        <v>1.141982510720661e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>122727.5809319904</v>
+        <v>135423.5010074488</v>
       </c>
     </row>
     <row r="11">
@@ -29515,28 +29515,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>98.25743389387415</v>
+        <v>108.5154301748406</v>
       </c>
       <c r="AB11" t="n">
-        <v>134.4401558655901</v>
+        <v>148.4755989280579</v>
       </c>
       <c r="AC11" t="n">
-        <v>121.6093760777579</v>
+        <v>134.3052961532163</v>
       </c>
       <c r="AD11" t="n">
-        <v>98257.43389387416</v>
+        <v>108515.4301748406</v>
       </c>
       <c r="AE11" t="n">
-        <v>134440.1558655901</v>
+        <v>148475.5989280579</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.698267691849435e-06</v>
+        <v>1.145329128206511e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>4</v>
+        <v>3.075</v>
       </c>
       <c r="AH11" t="n">
-        <v>121609.3760777579</v>
+        <v>134305.2961532163</v>
       </c>
     </row>
     <row r="12">
@@ -29621,28 +29621,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>98.65020289071659</v>
+        <v>108.9081991716831</v>
       </c>
       <c r="AB12" t="n">
-        <v>134.9775597348149</v>
+        <v>149.0130027972826</v>
       </c>
       <c r="AC12" t="n">
-        <v>122.0954908759551</v>
+        <v>134.7914109514135</v>
       </c>
       <c r="AD12" t="n">
-        <v>98650.20289071658</v>
+        <v>108908.1991716831</v>
       </c>
       <c r="AE12" t="n">
-        <v>134977.5597348149</v>
+        <v>149013.0027972827</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.69174364584077e-06</v>
+        <v>1.144213589044561e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3.077777777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>122095.4908759551</v>
+        <v>134791.4109514135</v>
       </c>
     </row>
   </sheetData>
@@ -29918,28 +29918,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.20567227793466</v>
+        <v>79.48152921142896</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.48078924810092</v>
+        <v>108.7501347446278</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.22718409883284</v>
+        <v>98.371174516401</v>
       </c>
       <c r="AD2" t="n">
-        <v>63205.67227793466</v>
+        <v>79481.52921142896</v>
       </c>
       <c r="AE2" t="n">
-        <v>86480.78924810092</v>
+        <v>108750.1347446278</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.873883360601443e-06</v>
+        <v>1.473389808687769e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="AH2" t="n">
-        <v>78227.18409883283</v>
+        <v>98371.17451640099</v>
       </c>
     </row>
   </sheetData>
@@ -30215,28 +30215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.5639211464193</v>
+        <v>158.2351577505572</v>
       </c>
       <c r="AB2" t="n">
-        <v>190.9575140380991</v>
+        <v>216.5043236766918</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.732796908911</v>
+        <v>195.8414548907771</v>
       </c>
       <c r="AD2" t="n">
-        <v>139563.9211464192</v>
+        <v>158235.1577505572</v>
       </c>
       <c r="AE2" t="n">
-        <v>190957.5140380991</v>
+        <v>216504.3236766918</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.111935206860228e-06</v>
+        <v>9.418395742463019e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>172732.796908911</v>
+        <v>195841.4548907771</v>
       </c>
     </row>
     <row r="3">
@@ -30321,28 +30321,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.29331834129601</v>
+        <v>111.8792140908623</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.6480339652343</v>
+        <v>153.0780764816294</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.4654847587669</v>
+        <v>138.4685197086942</v>
       </c>
       <c r="AD3" t="n">
-        <v>93293.31834129602</v>
+        <v>111879.2140908624</v>
       </c>
       <c r="AE3" t="n">
-        <v>127648.0339652343</v>
+        <v>153078.0764816294</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.61608915493043e-06</v>
+        <v>1.218969791419273e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.427777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>115465.4847587669</v>
+        <v>138468.5197086942</v>
       </c>
     </row>
     <row r="4">
@@ -30427,28 +30427,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>83.58395647191102</v>
+        <v>92.96228995554135</v>
       </c>
       <c r="AB4" t="n">
-        <v>114.3632567087339</v>
+        <v>127.1951063239033</v>
       </c>
       <c r="AC4" t="n">
-        <v>103.4485879983208</v>
+        <v>115.0557838958365</v>
       </c>
       <c r="AD4" t="n">
-        <v>83583.95647191102</v>
+        <v>92962.28995554135</v>
       </c>
       <c r="AE4" t="n">
-        <v>114363.2567087339</v>
+        <v>127195.1063239033</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.138811637589501e-06</v>
+        <v>1.315277882307415e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.176388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>103448.5879983208</v>
+        <v>115055.7838958365</v>
       </c>
     </row>
     <row r="5">
@@ -30533,28 +30533,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>80.89612552109318</v>
+        <v>90.2744590047235</v>
       </c>
       <c r="AB5" t="n">
-        <v>110.6856478230941</v>
+        <v>123.5174974382634</v>
       </c>
       <c r="AC5" t="n">
-        <v>100.1219649431687</v>
+        <v>111.7291608406845</v>
       </c>
       <c r="AD5" t="n">
-        <v>80896.12552109318</v>
+        <v>90274.4590047235</v>
       </c>
       <c r="AE5" t="n">
-        <v>110685.6478230941</v>
+        <v>123517.4974382635</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.282188813401642e-06</v>
+        <v>1.341694159658177e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.113888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>100121.9649431687</v>
+        <v>111729.1608406845</v>
       </c>
     </row>
   </sheetData>
@@ -30830,28 +30830,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>195.1795608031292</v>
+        <v>214.6071787934847</v>
       </c>
       <c r="AB2" t="n">
-        <v>267.0532858052275</v>
+        <v>293.6350098256343</v>
       </c>
       <c r="AC2" t="n">
-        <v>241.5660950196954</v>
+        <v>265.6108966072869</v>
       </c>
       <c r="AD2" t="n">
-        <v>195179.5608031292</v>
+        <v>214607.1787934847</v>
       </c>
       <c r="AE2" t="n">
-        <v>267053.2858052275</v>
+        <v>293635.0098256343</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.254759401031958e-06</v>
+        <v>7.600817164918248e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.131944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>241566.0950196953</v>
+        <v>265610.8966072869</v>
       </c>
     </row>
     <row r="3">
@@ -30936,28 +30936,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.3550235557356</v>
+        <v>130.7825520375401</v>
       </c>
       <c r="AB3" t="n">
-        <v>152.360855865815</v>
+        <v>178.9424574166734</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.8197496218275</v>
+        <v>161.8644404281924</v>
       </c>
       <c r="AD3" t="n">
-        <v>111355.0235557356</v>
+        <v>130782.5520375401</v>
       </c>
       <c r="AE3" t="n">
-        <v>152360.855865815</v>
+        <v>178942.4574166734</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.977605218654758e-06</v>
+        <v>1.067855548777591e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.652777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>137819.7496218275</v>
+        <v>161864.4404281924</v>
       </c>
     </row>
     <row r="4">
@@ -31042,28 +31042,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>98.83833225839277</v>
+        <v>118.0952685396051</v>
       </c>
       <c r="AB4" t="n">
-        <v>135.2349666353512</v>
+        <v>161.5831564113628</v>
       </c>
       <c r="AC4" t="n">
-        <v>122.3283312231772</v>
+        <v>146.1618867468912</v>
       </c>
       <c r="AD4" t="n">
-        <v>98838.33225839277</v>
+        <v>118095.2685396051</v>
       </c>
       <c r="AE4" t="n">
-        <v>135234.9666353512</v>
+        <v>161583.1564113628</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.549581225637031e-06</v>
+        <v>1.170034888242422e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.334722222222223</v>
       </c>
       <c r="AH4" t="n">
-        <v>122328.3312231772</v>
+        <v>146161.8867468912</v>
       </c>
     </row>
     <row r="5">
@@ -31148,28 +31148,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>92.14364398899258</v>
+        <v>101.8574977384459</v>
       </c>
       <c r="AB5" t="n">
-        <v>126.0749987963607</v>
+        <v>139.3659220413383</v>
       </c>
       <c r="AC5" t="n">
-        <v>114.0425778586415</v>
+        <v>126.0650340430505</v>
       </c>
       <c r="AD5" t="n">
-        <v>92143.64398899258</v>
+        <v>101857.4977384459</v>
       </c>
       <c r="AE5" t="n">
-        <v>126074.9987963607</v>
+        <v>139365.9220413383</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.86685653682181e-06</v>
+        <v>1.226713807164916e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.180555555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>114042.5778586415</v>
+        <v>126065.0340430505</v>
       </c>
     </row>
     <row r="6">
@@ -31254,28 +31254,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>87.83608931655981</v>
+        <v>97.5499430660131</v>
       </c>
       <c r="AB6" t="n">
-        <v>120.1812124576411</v>
+        <v>133.4721357026186</v>
       </c>
       <c r="AC6" t="n">
-        <v>108.7112862161062</v>
+        <v>120.7337424005153</v>
       </c>
       <c r="AD6" t="n">
-        <v>87836.08931655981</v>
+        <v>97549.9430660131</v>
       </c>
       <c r="AE6" t="n">
-        <v>120181.2124576411</v>
+        <v>133472.1357026186</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.03932978576616e-06</v>
+        <v>1.257524894408708e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.102777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>108711.2862161062</v>
+        <v>120733.7424005153</v>
       </c>
     </row>
     <row r="7">
@@ -31360,28 +31360,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>87.09672636690962</v>
+        <v>96.81058011636293</v>
       </c>
       <c r="AB7" t="n">
-        <v>119.169583451539</v>
+        <v>132.4605066965165</v>
       </c>
       <c r="AC7" t="n">
-        <v>107.796205662516</v>
+        <v>119.818661846925</v>
       </c>
       <c r="AD7" t="n">
-        <v>87096.72636690963</v>
+        <v>96810.58011636292</v>
       </c>
       <c r="AE7" t="n">
-        <v>119169.583451539</v>
+        <v>132460.5066965165</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.078163780742693e-06</v>
+        <v>1.264462304207448e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.084722222222223</v>
       </c>
       <c r="AH7" t="n">
-        <v>107796.205662516</v>
+        <v>119818.661846925</v>
       </c>
     </row>
     <row r="8">
@@ -31466,28 +31466,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>87.39070333791902</v>
+        <v>97.10455708737231</v>
       </c>
       <c r="AB8" t="n">
-        <v>119.5718157126225</v>
+        <v>132.8627389576</v>
       </c>
       <c r="AC8" t="n">
-        <v>108.1600494411383</v>
+        <v>120.1825056255474</v>
       </c>
       <c r="AD8" t="n">
-        <v>87390.70333791903</v>
+        <v>97104.55708737232</v>
       </c>
       <c r="AE8" t="n">
-        <v>119571.8157126225</v>
+        <v>132862.7389576</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.078163780742693e-06</v>
+        <v>1.264462304207448e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.084722222222223</v>
       </c>
       <c r="AH8" t="n">
-        <v>108160.0494411383</v>
+        <v>120182.5056255474</v>
       </c>
     </row>
   </sheetData>
